--- a/PythonResources/Data/Consumption/Sympheny/base_CC_dhw.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CC_dhw.xlsx
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -479,7 +479,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -711,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>26.38166875821699</v>
+        <v>26.38166875821698</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -895,7 +895,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>26.38166875821699</v>
+        <v>26.38166875821698</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>8.722995701820148</v>
+        <v>8.722995701820146</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>26.42392960199195</v>
+        <v>26.42392960199194</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>27.41550615419875</v>
+        <v>27.41550615419874</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>26.42372445226489</v>
+        <v>26.42372445226488</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>8.811298005768812</v>
+        <v>8.81129800576881</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>26.42316761729143</v>
+        <v>26.42316761729142</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>3.585900000644757</v>
+        <v>3.585900000644756</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>709</v>
       </c>
       <c r="B709">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>802</v>
       </c>
       <c r="B802">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>867</v>
       </c>
       <c r="B867">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>26.38471669701906</v>
+        <v>26.38471669701905</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>26.38679750139356</v>
+        <v>26.38679750139355</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>26.38471669701906</v>
+        <v>26.38471669701905</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>26.38685611560129</v>
+        <v>26.38685611560128</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -12943,7 +12943,7 @@
         <v>1575</v>
       </c>
       <c r="B1575">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>26.38471669701906</v>
+        <v>26.38471669701905</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>26.38679750139356</v>
+        <v>26.38679750139355</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>26.38542006751185</v>
+        <v>26.38542006751184</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14295,7 +14295,7 @@
         <v>1744</v>
       </c>
       <c r="B1744">
-        <v>26.38685611560129</v>
+        <v>26.38685611560128</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
@@ -14503,7 +14503,7 @@
         <v>1770</v>
       </c>
       <c r="B1770">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -14511,7 +14511,7 @@
         <v>1771</v>
       </c>
       <c r="B1771">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>26.38685611560129</v>
+        <v>26.38685611560128</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -15495,7 +15495,7 @@
         <v>1894</v>
       </c>
       <c r="B1894">
-        <v>26.38471669701906</v>
+        <v>26.38471669701905</v>
       </c>
     </row>
     <row r="1895" spans="1:2">
@@ -15895,7 +15895,7 @@
         <v>1944</v>
       </c>
       <c r="B1944">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="1945" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>26.38679750139356</v>
+        <v>26.38679750139355</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>26.38679750139356</v>
+        <v>26.38679750139355</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>26.38679750139356</v>
+        <v>26.38679750139355</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17439,7 +17439,7 @@
         <v>2137</v>
       </c>
       <c r="B2137">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="2138" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>35.1028767267013</v>
+        <v>35.10287672670129</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -18039,7 +18039,7 @@
         <v>2212</v>
       </c>
       <c r="B2212">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18639,7 +18639,7 @@
         <v>2287</v>
       </c>
       <c r="B2287">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2288" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>35.1028767267013</v>
+        <v>35.10287672670129</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19543,7 +19543,7 @@
         <v>2400</v>
       </c>
       <c r="B2400">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2401" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19751,7 +19751,7 @@
         <v>2426</v>
       </c>
       <c r="B2426">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2427" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19831,7 +19831,7 @@
         <v>2436</v>
       </c>
       <c r="B2436">
-        <v>26.38542006751185</v>
+        <v>26.38542006751184</v>
       </c>
     </row>
     <row r="2437" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>35.1028767267013</v>
+        <v>35.10287672670129</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21503,7 +21503,7 @@
         <v>2645</v>
       </c>
       <c r="B2645">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2646" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>35.1028767267013</v>
+        <v>35.10287672670129</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>26.38542006751185</v>
+        <v>26.38542006751184</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>26.38542006751185</v>
+        <v>26.38542006751184</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>26.38471669701906</v>
+        <v>26.38471669701905</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>26.3827824281639</v>
+        <v>26.38278242816389</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>26.38457016149973</v>
+        <v>26.38457016149972</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>26.38298757789096</v>
+        <v>26.38298757789095</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>26.38284104237163</v>
+        <v>26.38284104237162</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>26.38257727843684</v>
+        <v>26.38257727843683</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>1.783448637248978</v>
+        <v>1.783448637248977</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -23247,7 +23247,7 @@
         <v>2863</v>
       </c>
       <c r="B2863">
-        <v>35.1028767267013</v>
+        <v>35.10287672670129</v>
       </c>
     </row>
     <row r="2864" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -23775,7 +23775,7 @@
         <v>2929</v>
       </c>
       <c r="B2929">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="2930" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>26.37806398444145</v>
+        <v>26.37806398444144</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -23855,7 +23855,7 @@
         <v>2939</v>
       </c>
       <c r="B2939">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="2940" spans="1:2">
@@ -23975,7 +23975,7 @@
         <v>2954</v>
       </c>
       <c r="B2954">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="2955" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24887,7 +24887,7 @@
         <v>3068</v>
       </c>
       <c r="B3068">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="3069" spans="1:2">
@@ -24919,7 +24919,7 @@
         <v>3072</v>
       </c>
       <c r="B3072">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="3073" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>26.37806398444145</v>
+        <v>26.37806398444144</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>26.38172737242472</v>
+        <v>26.38172737242471</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25551,7 +25551,7 @@
         <v>3151</v>
       </c>
       <c r="B3151">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="3152" spans="1:2">
@@ -26071,7 +26071,7 @@
         <v>3216</v>
       </c>
       <c r="B3216">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="3217" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26231,7 +26231,7 @@
         <v>3236</v>
       </c>
       <c r="B3236">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="3237" spans="1:2">
@@ -26399,7 +26399,7 @@
         <v>3257</v>
       </c>
       <c r="B3257">
-        <v>26.38166875821699</v>
+        <v>26.38166875821698</v>
       </c>
     </row>
     <row r="3258" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>26.38172737242472</v>
+        <v>26.38172737242471</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26655,7 +26655,7 @@
         <v>3289</v>
       </c>
       <c r="B3289">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="3290" spans="1:2">
@@ -26703,7 +26703,7 @@
         <v>3295</v>
       </c>
       <c r="B3295">
-        <v>26.37806398444145</v>
+        <v>26.37806398444144</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>26.37882596914197</v>
+        <v>26.37882596914196</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>26.38055508827007</v>
+        <v>26.38055508827006</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27847,7 +27847,7 @@
         <v>3438</v>
       </c>
       <c r="B3438">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="3439" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28959,7 +28959,7 @@
         <v>3577</v>
       </c>
       <c r="B3577">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -28991,7 +28991,7 @@
         <v>3581</v>
       </c>
       <c r="B3581">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>26.38111192324353</v>
+        <v>26.38111192324352</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29351,7 +29351,7 @@
         <v>3626</v>
       </c>
       <c r="B3626">
-        <v>26.20922575906865</v>
+        <v>26.20922575906864</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29535,7 +29535,7 @@
         <v>3649</v>
       </c>
       <c r="B3649">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -29591,7 +29591,7 @@
         <v>3656</v>
       </c>
       <c r="B3656">
-        <v>3.42052001352816</v>
+        <v>3.420520013528159</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -29623,7 +29623,7 @@
         <v>3660</v>
       </c>
       <c r="B3660">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3661" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>28.51314511529708</v>
+        <v>28.51314511529707</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30295,7 +30295,7 @@
         <v>3744</v>
       </c>
       <c r="B3744">
-        <v>26.37410752541952</v>
+        <v>26.37410752541951</v>
       </c>
     </row>
     <row r="3745" spans="1:2">
@@ -30399,7 +30399,7 @@
         <v>3757</v>
       </c>
       <c r="B3757">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>10.26498897173682</v>
+        <v>10.26498897173681</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -30759,7 +30759,7 @@
         <v>3802</v>
       </c>
       <c r="B3802">
-        <v>26.80415996755118</v>
+        <v>26.80415996755117</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31159,7 +31159,7 @@
         <v>3852</v>
       </c>
       <c r="B3852">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31191,7 +31191,7 @@
         <v>3856</v>
       </c>
       <c r="B3856">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31479,7 +31479,7 @@
         <v>3892</v>
       </c>
       <c r="B3892">
-        <v>26.37287662705715</v>
+        <v>26.37287662705714</v>
       </c>
     </row>
     <row r="3893" spans="1:2">
@@ -31591,7 +31591,7 @@
         <v>3906</v>
       </c>
       <c r="B3906">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="3907" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>26.8048340309401</v>
+        <v>26.80483403094009</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>26.37577803033989</v>
+        <v>26.37577803033988</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32359,7 +32359,7 @@
         <v>4002</v>
       </c>
       <c r="B4002">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="4003" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32815,7 +32815,7 @@
         <v>4059</v>
       </c>
       <c r="B4059">
-        <v>26.37390237569246</v>
+        <v>26.37390237569245</v>
       </c>
     </row>
     <row r="4060" spans="1:2">
@@ -32823,7 +32823,7 @@
         <v>4060</v>
       </c>
       <c r="B4060">
-        <v>26.3736972259654</v>
+        <v>26.37369722596539</v>
       </c>
     </row>
     <row r="4061" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>26.39345021397117</v>
+        <v>26.39345021397116</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>26.3935088281789</v>
+        <v>26.39350882817889</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33335,7 +33335,7 @@
         <v>4124</v>
       </c>
       <c r="B4124">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="4125" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33687,7 +33687,7 @@
         <v>4168</v>
       </c>
       <c r="B4168">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4169" spans="1:2">
@@ -33703,7 +33703,7 @@
         <v>4170</v>
       </c>
       <c r="B4170">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="4171" spans="1:2">
@@ -33847,7 +33847,7 @@
         <v>4188</v>
       </c>
       <c r="B4188">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4189" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>26.80421858175891</v>
+        <v>26.8042185817589</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>3.153971903865666</v>
+        <v>3.153971903865665</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35047,7 +35047,7 @@
         <v>4338</v>
       </c>
       <c r="B4338">
-        <v>1.873585565899661</v>
+        <v>1.87358556589966</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35271,7 +35271,7 @@
         <v>4366</v>
       </c>
       <c r="B4366">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>26.37176295711023</v>
+        <v>26.37176295711022</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35631,7 +35631,7 @@
         <v>4411</v>
       </c>
       <c r="B4411">
-        <v>26.37231979208369</v>
+        <v>26.37231979208368</v>
       </c>
     </row>
     <row r="4412" spans="1:2">
@@ -35719,7 +35719,7 @@
         <v>4422</v>
       </c>
       <c r="B4422">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4423" spans="1:2">
@@ -35759,7 +35759,7 @@
         <v>4427</v>
       </c>
       <c r="B4427">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4428" spans="1:2">
@@ -35775,7 +35775,7 @@
         <v>4429</v>
       </c>
       <c r="B4429">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4430" spans="1:2">
@@ -35847,7 +35847,7 @@
         <v>4438</v>
       </c>
       <c r="B4438">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4439" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36079,7 +36079,7 @@
         <v>4467</v>
       </c>
       <c r="B4467">
-        <v>16.34231517914554</v>
+        <v>16.34231517914553</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>26.37287662705715</v>
+        <v>26.37287662705714</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36295,7 +36295,7 @@
         <v>4494</v>
       </c>
       <c r="B4494">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4495" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36423,7 +36423,7 @@
         <v>4510</v>
       </c>
       <c r="B4510">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4511" spans="1:2">
@@ -36487,7 +36487,7 @@
         <v>4518</v>
       </c>
       <c r="B4518">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4519" spans="1:2">
@@ -36527,7 +36527,7 @@
         <v>4523</v>
       </c>
       <c r="B4523">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4524" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36615,7 +36615,7 @@
         <v>4534</v>
       </c>
       <c r="B4534">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4535" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>26.37287662705715</v>
+        <v>26.37287662705714</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>26.36918393197001</v>
+        <v>26.36918393197</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>27.35190973880924</v>
+        <v>27.35190973880923</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37767,7 +37767,7 @@
         <v>4678</v>
       </c>
       <c r="B4678">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4679" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -37887,7 +37887,7 @@
         <v>4693</v>
       </c>
       <c r="B4693">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4694" spans="1:2">
@@ -37959,7 +37959,7 @@
         <v>4702</v>
       </c>
       <c r="B4702">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4703" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>27.35059091913526</v>
+        <v>27.35059091913525</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>26.4102138773826</v>
+        <v>26.41021387738259</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38127,7 +38127,7 @@
         <v>4723</v>
       </c>
       <c r="B4723">
-        <v>26.37231979208369</v>
+        <v>26.37231979208368</v>
       </c>
     </row>
     <row r="4724" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>26.41103447629085</v>
+        <v>26.41103447629084</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>26.37293524126488</v>
+        <v>26.37293524126487</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38367,7 +38367,7 @@
         <v>4753</v>
       </c>
       <c r="B4753">
-        <v>26.37064928716332</v>
+        <v>26.37064928716331</v>
       </c>
     </row>
     <row r="4754" spans="1:2">
@@ -38543,7 +38543,7 @@
         <v>4775</v>
       </c>
       <c r="B4775">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="4776" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>26.37410752541952</v>
+        <v>26.37410752541951</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38959,7 +38959,7 @@
         <v>4827</v>
       </c>
       <c r="B4827">
-        <v>9.21526712545961</v>
+        <v>9.215267125459608</v>
       </c>
     </row>
     <row r="4828" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39111,7 +39111,7 @@
         <v>4846</v>
       </c>
       <c r="B4846">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4847" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39303,7 +39303,7 @@
         <v>4870</v>
       </c>
       <c r="B4870">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4871" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>27.35226142405563</v>
+        <v>27.35226142405562</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>26.41123962601791</v>
+        <v>26.4112396260179</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>31.27566203282279</v>
+        <v>31.27566203282278</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39871,7 +39871,7 @@
         <v>4941</v>
       </c>
       <c r="B4941">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="4942" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>26.41103447629085</v>
+        <v>26.41103447629084</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>26.37009245218986</v>
+        <v>26.37009245218985</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40159,7 +40159,7 @@
         <v>4977</v>
       </c>
       <c r="B4977">
-        <v>31.27448974866814</v>
+        <v>31.27448974866813</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40223,7 +40223,7 @@
         <v>4985</v>
       </c>
       <c r="B4985">
-        <v>26.37231979208369</v>
+        <v>26.37231979208368</v>
       </c>
     </row>
     <row r="4986" spans="1:2">
@@ -40247,7 +40247,7 @@
         <v>4988</v>
       </c>
       <c r="B4988">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="4989" spans="1:2">
@@ -40295,7 +40295,7 @@
         <v>4994</v>
       </c>
       <c r="B4994">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40327,7 +40327,7 @@
         <v>4998</v>
       </c>
       <c r="B4998">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="4999" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40455,7 +40455,7 @@
         <v>5014</v>
       </c>
       <c r="B5014">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40575,7 +40575,7 @@
         <v>5029</v>
       </c>
       <c r="B5029">
-        <v>3.321022395902633</v>
+        <v>3.321022395902632</v>
       </c>
     </row>
     <row r="5030" spans="1:2">
@@ -40647,7 +40647,7 @@
         <v>5038</v>
       </c>
       <c r="B5038">
-        <v>0.9389058251385788</v>
+        <v>0.9389058251385786</v>
       </c>
     </row>
     <row r="5039" spans="1:2">
@@ -41071,7 +41071,7 @@
         <v>5091</v>
       </c>
       <c r="B5091">
-        <v>16.51472887119001</v>
+        <v>16.51472887119</v>
       </c>
     </row>
     <row r="5092" spans="1:2">
@@ -41399,7 +41399,7 @@
         <v>5132</v>
       </c>
       <c r="B5132">
-        <v>26.36918393197001</v>
+        <v>26.36918393197</v>
       </c>
     </row>
     <row r="5133" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -42191,7 +42191,7 @@
         <v>5231</v>
       </c>
       <c r="B5231">
-        <v>26.36669282814139</v>
+        <v>26.36669282814138</v>
       </c>
     </row>
     <row r="5232" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>26.36601876475247</v>
+        <v>26.36601876475246</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>26.42143849816333</v>
+        <v>26.42143849816332</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42351,7 +42351,7 @@
         <v>5251</v>
       </c>
       <c r="B5251">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="5252" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>27.69638543765178</v>
+        <v>27.69638543765177</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>26.36719104890712</v>
+        <v>26.36719104890711</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>26.42214186865612</v>
+        <v>26.42214186865611</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>26.37003383798213</v>
+        <v>26.37003383798212</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43679,7 +43679,7 @@
         <v>5417</v>
       </c>
       <c r="B5417">
-        <v>26.37009245218986</v>
+        <v>26.37009245218985</v>
       </c>
     </row>
     <row r="5418" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>26.6342666864392</v>
+        <v>26.63426668643919</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>26.42149711237106</v>
+        <v>26.42149711237105</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44263,7 +44263,7 @@
         <v>5490</v>
       </c>
       <c r="B5490">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="5491" spans="1:2">
@@ -44383,7 +44383,7 @@
         <v>5505</v>
       </c>
       <c r="B5505">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5506" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44839,7 +44839,7 @@
         <v>5562</v>
       </c>
       <c r="B5562">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="5563" spans="1:2">
@@ -44871,7 +44871,7 @@
         <v>5566</v>
       </c>
       <c r="B5566">
-        <v>26.36774788388057</v>
+        <v>26.36774788388056</v>
       </c>
     </row>
     <row r="5567" spans="1:2">
@@ -45039,7 +45039,7 @@
         <v>5587</v>
       </c>
       <c r="B5587">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="5588" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>26.36918393197001</v>
+        <v>26.36918393197</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45215,7 +45215,7 @@
         <v>5609</v>
       </c>
       <c r="B5609">
-        <v>26.36918393197001</v>
+        <v>26.36918393197</v>
       </c>
     </row>
     <row r="5610" spans="1:2">
@@ -45231,7 +45231,7 @@
         <v>5611</v>
       </c>
       <c r="B5611">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="5612" spans="1:2">
@@ -45263,7 +45263,7 @@
         <v>5615</v>
       </c>
       <c r="B5615">
-        <v>26.36719104890712</v>
+        <v>26.36719104890711</v>
       </c>
     </row>
     <row r="5616" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>3.391154295454293</v>
+        <v>3.391154295454292</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -46183,7 +46183,7 @@
         <v>5730</v>
       </c>
       <c r="B5730">
-        <v>26.36918393197001</v>
+        <v>26.36918393197</v>
       </c>
     </row>
     <row r="5731" spans="1:2">
@@ -46239,7 +46239,7 @@
         <v>5737</v>
       </c>
       <c r="B5737">
-        <v>26.36669282814139</v>
+        <v>26.36669282814138</v>
       </c>
     </row>
     <row r="5738" spans="1:2">
@@ -46439,7 +46439,7 @@
         <v>5762</v>
       </c>
       <c r="B5762">
-        <v>14.68508637682723</v>
+        <v>14.68508637682722</v>
       </c>
     </row>
     <row r="5763" spans="1:2">
@@ -47023,7 +47023,7 @@
         <v>5835</v>
       </c>
       <c r="B5835">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5836" spans="1:2">
@@ -47031,7 +47031,7 @@
         <v>5836</v>
       </c>
       <c r="B5836">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5837" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47047,7 +47047,7 @@
         <v>5838</v>
       </c>
       <c r="B5838">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="5839" spans="1:2">
@@ -47175,7 +47175,7 @@
         <v>5854</v>
       </c>
       <c r="B5854">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="5855" spans="1:2">
@@ -47183,7 +47183,7 @@
         <v>5855</v>
       </c>
       <c r="B5855">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5856" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47207,7 +47207,7 @@
         <v>5858</v>
       </c>
       <c r="B5858">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5859" spans="1:2">
@@ -47215,7 +47215,7 @@
         <v>5859</v>
       </c>
       <c r="B5859">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5860" spans="1:2">
@@ -47223,7 +47223,7 @@
         <v>5860</v>
       </c>
       <c r="B5860">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5861" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47367,7 +47367,7 @@
         <v>5878</v>
       </c>
       <c r="B5878">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="5879" spans="1:2">
@@ -47375,7 +47375,7 @@
         <v>5879</v>
       </c>
       <c r="B5879">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5880" spans="1:2">
@@ -47383,7 +47383,7 @@
         <v>5880</v>
       </c>
       <c r="B5880">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5881" spans="1:2">
@@ -47391,7 +47391,7 @@
         <v>5881</v>
       </c>
       <c r="B5881">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5882" spans="1:2">
@@ -47399,7 +47399,7 @@
         <v>5882</v>
       </c>
       <c r="B5882">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5883" spans="1:2">
@@ -47407,7 +47407,7 @@
         <v>5883</v>
       </c>
       <c r="B5883">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5884" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47423,7 +47423,7 @@
         <v>5885</v>
       </c>
       <c r="B5885">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5886" spans="1:2">
@@ -47431,7 +47431,7 @@
         <v>5886</v>
       </c>
       <c r="B5886">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="5887" spans="1:2">
@@ -47559,7 +47559,7 @@
         <v>5902</v>
       </c>
       <c r="B5902">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="5903" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>26.42164364789039</v>
+        <v>26.42164364789038</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48359,7 +48359,7 @@
         <v>6002</v>
       </c>
       <c r="B6002">
-        <v>7.387060679186272</v>
+        <v>7.387060679186271</v>
       </c>
     </row>
     <row r="6003" spans="1:2">
@@ -48367,7 +48367,7 @@
         <v>6003</v>
       </c>
       <c r="B6003">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6004" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48391,7 +48391,7 @@
         <v>6006</v>
       </c>
       <c r="B6006">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6007" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48535,7 +48535,7 @@
         <v>6024</v>
       </c>
       <c r="B6024">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6025" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48551,7 +48551,7 @@
         <v>6026</v>
       </c>
       <c r="B6026">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6027" spans="1:2">
@@ -48559,7 +48559,7 @@
         <v>6027</v>
       </c>
       <c r="B6027">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6028" spans="1:2">
@@ -48567,7 +48567,7 @@
         <v>6028</v>
       </c>
       <c r="B6028">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6029" spans="1:2">
@@ -48575,7 +48575,7 @@
         <v>6029</v>
       </c>
       <c r="B6029">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6030" spans="1:2">
@@ -48583,7 +48583,7 @@
         <v>6030</v>
       </c>
       <c r="B6030">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6031" spans="1:2">
@@ -48711,7 +48711,7 @@
         <v>6046</v>
       </c>
       <c r="B6046">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6047" spans="1:2">
@@ -48719,7 +48719,7 @@
         <v>6047</v>
       </c>
       <c r="B6047">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6048" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>26.36669282814139</v>
+        <v>26.36669282814138</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49447,7 +49447,7 @@
         <v>6138</v>
       </c>
       <c r="B6138">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="6139" spans="1:2">
@@ -49455,7 +49455,7 @@
         <v>6139</v>
       </c>
       <c r="B6139">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="6140" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49639,7 +49639,7 @@
         <v>6162</v>
       </c>
       <c r="B6162">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="6163" spans="1:2">
@@ -49711,7 +49711,7 @@
         <v>6171</v>
       </c>
       <c r="B6171">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6172" spans="1:2">
@@ -49719,7 +49719,7 @@
         <v>6172</v>
       </c>
       <c r="B6172">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6173" spans="1:2">
@@ -49727,7 +49727,7 @@
         <v>6173</v>
       </c>
       <c r="B6173">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6174" spans="1:2">
@@ -49735,7 +49735,7 @@
         <v>6174</v>
       </c>
       <c r="B6174">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6175" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49871,7 +49871,7 @@
         <v>6191</v>
       </c>
       <c r="B6191">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6192" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49887,7 +49887,7 @@
         <v>6193</v>
       </c>
       <c r="B6193">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6194" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -49903,7 +49903,7 @@
         <v>6195</v>
       </c>
       <c r="B6195">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6196" spans="1:2">
@@ -49911,7 +49911,7 @@
         <v>6196</v>
       </c>
       <c r="B6196">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6197" spans="1:2">
@@ -49919,7 +49919,7 @@
         <v>6197</v>
       </c>
       <c r="B6197">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6198" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50063,7 +50063,7 @@
         <v>6215</v>
       </c>
       <c r="B6215">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6216" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>26.36774788388057</v>
+        <v>26.36774788388056</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>12.43731943160631</v>
+        <v>12.4373194316063</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>27.72712858960735</v>
+        <v>27.72712858960734</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50799,7 +50799,7 @@
         <v>6307</v>
       </c>
       <c r="B6307">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="6308" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>26.36774788388057</v>
+        <v>26.36774788388056</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>26.36601876475247</v>
+        <v>26.36601876475246</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51063,7 +51063,7 @@
         <v>6340</v>
       </c>
       <c r="B6340">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6341" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51079,7 +51079,7 @@
         <v>6342</v>
       </c>
       <c r="B6342">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6343" spans="1:2">
@@ -51207,7 +51207,7 @@
         <v>6358</v>
       </c>
       <c r="B6358">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6359" spans="1:2">
@@ -51215,7 +51215,7 @@
         <v>6359</v>
       </c>
       <c r="B6359">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6360" spans="1:2">
@@ -51223,7 +51223,7 @@
         <v>6360</v>
       </c>
       <c r="B6360">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6361" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51239,7 +51239,7 @@
         <v>6362</v>
       </c>
       <c r="B6362">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6363" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51263,7 +51263,7 @@
         <v>6365</v>
       </c>
       <c r="B6365">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6366" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51399,7 +51399,7 @@
         <v>6382</v>
       </c>
       <c r="B6382">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6383" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51615,7 +51615,7 @@
         <v>6409</v>
       </c>
       <c r="B6409">
-        <v>26.36516885874035</v>
+        <v>26.36516885874034</v>
       </c>
     </row>
     <row r="6410" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>33.16157416660855</v>
+        <v>33.16157416660854</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51879,7 +51879,7 @@
         <v>6442</v>
       </c>
       <c r="B6442">
-        <v>27.7263079906991</v>
+        <v>27.72630799069909</v>
       </c>
     </row>
     <row r="6443" spans="1:2">
@@ -52191,7 +52191,7 @@
         <v>6481</v>
       </c>
       <c r="B6481">
-        <v>26.36601876475247</v>
+        <v>26.36601876475246</v>
       </c>
     </row>
     <row r="6482" spans="1:2">
@@ -52391,7 +52391,7 @@
         <v>6506</v>
       </c>
       <c r="B6506">
-        <v>7.402007302158</v>
+        <v>7.402007302157999</v>
       </c>
     </row>
     <row r="6507" spans="1:2">
@@ -52399,7 +52399,7 @@
         <v>6507</v>
       </c>
       <c r="B6507">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6508" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52415,7 +52415,7 @@
         <v>6509</v>
       </c>
       <c r="B6509">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6510" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52551,7 +52551,7 @@
         <v>6526</v>
       </c>
       <c r="B6526">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6527" spans="1:2">
@@ -52559,7 +52559,7 @@
         <v>6527</v>
       </c>
       <c r="B6527">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6528" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52599,7 +52599,7 @@
         <v>6532</v>
       </c>
       <c r="B6532">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6533" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52615,7 +52615,7 @@
         <v>6534</v>
       </c>
       <c r="B6534">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6535" spans="1:2">
@@ -52743,7 +52743,7 @@
         <v>6550</v>
       </c>
       <c r="B6550">
-        <v>0.8906575400437615</v>
+        <v>0.8906575400437614</v>
       </c>
     </row>
     <row r="6551" spans="1:2">
@@ -52751,7 +52751,7 @@
         <v>6551</v>
       </c>
       <c r="B6551">
-        <v>0.7211804198066787</v>
+        <v>0.7211804198066786</v>
       </c>
     </row>
     <row r="6552" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52775,7 +52775,7 @@
         <v>6554</v>
       </c>
       <c r="B6554">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6555" spans="1:2">
@@ -52783,7 +52783,7 @@
         <v>6555</v>
       </c>
       <c r="B6555">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6556" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>26.37023898770919</v>
+        <v>26.37023898770918</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>27.44197046898986</v>
+        <v>27.44197046898985</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>26.58438599565904</v>
+        <v>26.58438599565903</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53127,7 +53127,7 @@
         <v>6598</v>
       </c>
       <c r="B6598">
-        <v>26.36933046748934</v>
+        <v>26.36933046748933</v>
       </c>
     </row>
     <row r="6599" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53335,7 +53335,7 @@
         <v>6624</v>
       </c>
       <c r="B6624">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="6625" spans="1:2">
@@ -53359,7 +53359,7 @@
         <v>6627</v>
       </c>
       <c r="B6627">
-        <v>9.5590980680171</v>
+        <v>9.559098068017098</v>
       </c>
     </row>
     <row r="6628" spans="1:2">
@@ -53367,7 +53367,7 @@
         <v>6628</v>
       </c>
       <c r="B6628">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6629" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>31.73285285313449</v>
+        <v>31.73285285313448</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>31.73285285313449</v>
+        <v>31.73285285313448</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -53671,7 +53671,7 @@
         <v>6666</v>
       </c>
       <c r="B6666">
-        <v>26.37176295711023</v>
+        <v>26.37176295711022</v>
       </c>
     </row>
     <row r="6667" spans="1:2">
@@ -53679,7 +53679,7 @@
         <v>6667</v>
       </c>
       <c r="B6667">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="6668" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54311,7 +54311,7 @@
         <v>6746</v>
       </c>
       <c r="B6746">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6747" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54327,7 +54327,7 @@
         <v>6748</v>
       </c>
       <c r="B6748">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6749" spans="1:2">
@@ -54399,7 +54399,7 @@
         <v>6757</v>
       </c>
       <c r="B6757">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="6758" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>26.37023898770919</v>
+        <v>26.37023898770918</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54855,7 +54855,7 @@
         <v>6814</v>
       </c>
       <c r="B6814">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="6815" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -55031,7 +55031,7 @@
         <v>6836</v>
       </c>
       <c r="B6836">
-        <v>26.37023898770919</v>
+        <v>26.37023898770918</v>
       </c>
     </row>
     <row r="6837" spans="1:2">
@@ -55087,7 +55087,7 @@
         <v>6843</v>
       </c>
       <c r="B6843">
-        <v>2.557915233305062</v>
+        <v>2.557915233305061</v>
       </c>
     </row>
     <row r="6844" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>26.37882596914197</v>
+        <v>26.37882596914196</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>26.36774788388057</v>
+        <v>26.36774788388056</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55863,7 +55863,7 @@
         <v>6940</v>
       </c>
       <c r="B6940">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6941" spans="1:2">
@@ -56047,7 +56047,7 @@
         <v>6963</v>
       </c>
       <c r="B6963">
-        <v>9.57820629973782</v>
+        <v>9.578206299737818</v>
       </c>
     </row>
     <row r="6964" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>26.37064928716332</v>
+        <v>26.37064928716331</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56215,7 +56215,7 @@
         <v>6984</v>
       </c>
       <c r="B6984">
-        <v>26.36774788388057</v>
+        <v>26.36774788388056</v>
       </c>
     </row>
     <row r="6985" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56791,7 +56791,7 @@
         <v>7056</v>
       </c>
       <c r="B7056">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7057" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>26.36912531776228</v>
+        <v>26.36912531776227</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57207,7 +57207,7 @@
         <v>7108</v>
       </c>
       <c r="B7108">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7109" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>31.73285285313449</v>
+        <v>31.73285285313448</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57295,7 +57295,7 @@
         <v>7119</v>
       </c>
       <c r="B7119">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="7120" spans="1:2">
@@ -57327,7 +57327,7 @@
         <v>7123</v>
       </c>
       <c r="B7123">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="7124" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>26.37009245218986</v>
+        <v>26.37009245218985</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57551,7 +57551,7 @@
         <v>7151</v>
       </c>
       <c r="B7151">
-        <v>26.36918393197001</v>
+        <v>26.36918393197</v>
       </c>
     </row>
     <row r="7152" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>26.37064928716332</v>
+        <v>26.37064928716331</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>26.36927185328161</v>
+        <v>26.3692718532816</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58143,7 +58143,7 @@
         <v>7225</v>
       </c>
       <c r="B7225">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7226" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58159,7 +58159,7 @@
         <v>7227</v>
       </c>
       <c r="B7227">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7228" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>26.37009245218986</v>
+        <v>26.37009245218985</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58287,7 +58287,7 @@
         <v>7243</v>
       </c>
       <c r="B7243">
-        <v>26.37009245218986</v>
+        <v>26.37009245218985</v>
       </c>
     </row>
     <row r="7244" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>26.58397569620491</v>
+        <v>26.5839756962049</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>26.37064928716332</v>
+        <v>26.37064928716331</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58551,7 +58551,7 @@
         <v>7276</v>
       </c>
       <c r="B7276">
-        <v>2.502480846342269</v>
+        <v>2.502480846342268</v>
       </c>
     </row>
     <row r="7277" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>9.294806605352299</v>
+        <v>9.294806605352298</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>29.02461269196887</v>
+        <v>29.02461269196886</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>29.02452477065727</v>
+        <v>29.02452477065726</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59119,7 +59119,7 @@
         <v>7347</v>
       </c>
       <c r="B7347">
-        <v>26.37176295711023</v>
+        <v>26.37176295711022</v>
       </c>
     </row>
     <row r="7348" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>26.90315936441098</v>
+        <v>26.90315936441097</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59591,7 +59591,7 @@
         <v>7406</v>
       </c>
       <c r="B7406">
-        <v>26.37806398444145</v>
+        <v>26.37806398444144</v>
       </c>
     </row>
     <row r="7407" spans="1:2">
@@ -59599,7 +59599,7 @@
         <v>7407</v>
       </c>
       <c r="B7407">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="7408" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>25.81396084922609</v>
+        <v>25.81396084922608</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>25.80959409075004</v>
+        <v>25.80959409075003</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>26.37176295711023</v>
+        <v>26.37176295711022</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60215,7 +60215,7 @@
         <v>7484</v>
       </c>
       <c r="B7484">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="7485" spans="1:2">
@@ -60383,7 +60383,7 @@
         <v>7505</v>
       </c>
       <c r="B7505">
-        <v>26.37481089591231</v>
+        <v>26.3748108959123</v>
       </c>
     </row>
     <row r="7506" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61415,7 +61415,7 @@
         <v>7634</v>
       </c>
       <c r="B7634">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7635" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>29.02329387229489</v>
+        <v>29.02329387229488</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>29.02264911600983</v>
+        <v>29.02264911600982</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>26.37410752541952</v>
+        <v>26.37410752541951</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>26.37176295711023</v>
+        <v>26.37176295711022</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62711,7 +62711,7 @@
         <v>7796</v>
       </c>
       <c r="B7796">
-        <v>26.37404891121179</v>
+        <v>26.37404891121178</v>
       </c>
     </row>
     <row r="7797" spans="1:2">
@@ -63031,7 +63031,7 @@
         <v>7836</v>
       </c>
       <c r="B7836">
-        <v>26.47879250042935</v>
+        <v>26.47879250042934</v>
       </c>
     </row>
     <row r="7837" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>26.37064928716332</v>
+        <v>26.37064928716331</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>26.37404891121179</v>
+        <v>26.37404891121178</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>26.37410752541952</v>
+        <v>26.37410752541951</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>26.37231979208369</v>
+        <v>26.37231979208368</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63711,7 +63711,7 @@
         <v>7921</v>
       </c>
       <c r="B7921">
-        <v>26.3716164215909</v>
+        <v>26.37161642159089</v>
       </c>
     </row>
     <row r="7922" spans="1:2">
@@ -63903,7 +63903,7 @@
         <v>7945</v>
       </c>
       <c r="B7945">
-        <v>26.37176295711023</v>
+        <v>26.37176295711022</v>
       </c>
     </row>
     <row r="7946" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>26.37155780738317</v>
+        <v>26.37155780738316</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64519,7 +64519,7 @@
         <v>8022</v>
       </c>
       <c r="B8022">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8023" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64679,7 +64679,7 @@
         <v>8042</v>
       </c>
       <c r="B8042">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8043" spans="1:2">
@@ -64687,7 +64687,7 @@
         <v>8043</v>
       </c>
       <c r="B8043">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8044" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64855,7 +64855,7 @@
         <v>8064</v>
       </c>
       <c r="B8064">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8065" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>7.876958227412576</v>
+        <v>7.876958227412575</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>32.54759034061303</v>
+        <v>32.54759034061302</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65407,7 +65407,7 @@
         <v>8133</v>
       </c>
       <c r="B8133">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="8134" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>26.38049647406234</v>
+        <v>26.38049647406233</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65631,7 +65631,7 @@
         <v>8161</v>
       </c>
       <c r="B8161">
-        <v>26.37791744892212</v>
+        <v>26.37791744892211</v>
       </c>
     </row>
     <row r="8162" spans="1:2">
@@ -65703,7 +65703,7 @@
         <v>8170</v>
       </c>
       <c r="B8170">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="8171" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>26.38034993854301</v>
+        <v>26.380349938543</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66039,7 +66039,7 @@
         <v>8212</v>
       </c>
       <c r="B8212">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8213" spans="1:2">
@@ -66047,7 +66047,7 @@
         <v>8213</v>
       </c>
       <c r="B8213">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8214" spans="1:2">
@@ -66055,7 +66055,7 @@
         <v>8214</v>
       </c>
       <c r="B8214">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8215" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>7.876958227412576</v>
+        <v>7.876958227412575</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>26.37806398444145</v>
+        <v>26.37806398444144</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>26.37882596914197</v>
+        <v>26.37882596914196</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66535,7 +66535,7 @@
         <v>8274</v>
       </c>
       <c r="B8274">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="8275" spans="1:2">
@@ -66655,7 +66655,7 @@
         <v>8289</v>
       </c>
       <c r="B8289">
-        <v>26.37577803033989</v>
+        <v>26.37577803033988</v>
       </c>
     </row>
     <row r="8290" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>26.37577803033989</v>
+        <v>26.37577803033988</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67375,7 +67375,7 @@
         <v>8379</v>
       </c>
       <c r="B8379">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8380" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67391,7 +67391,7 @@
         <v>8381</v>
       </c>
       <c r="B8381">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8382" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>7.876958227412576</v>
+        <v>7.876958227412575</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>26.62465395637111</v>
+        <v>26.6246539563711</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>26.37577803033989</v>
+        <v>26.37577803033988</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>26.37577803033989</v>
+        <v>26.37577803033988</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>26.37882596914197</v>
+        <v>26.37882596914196</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68287,7 +68287,7 @@
         <v>8493</v>
       </c>
       <c r="B8493">
-        <v>26.37812259864918</v>
+        <v>26.37812259864917</v>
       </c>
     </row>
     <row r="8494" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>26.37903111886903</v>
+        <v>26.37903111886902</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68447,7 +68447,7 @@
         <v>8513</v>
       </c>
       <c r="B8513">
-        <v>26.37944141832316</v>
+        <v>26.37944141832315</v>
       </c>
     </row>
     <row r="8514" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>6.829815406275589</v>
+        <v>6.829815406275588</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68703,7 +68703,7 @@
         <v>8545</v>
       </c>
       <c r="B8545">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8546" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>7.876958227412576</v>
+        <v>7.876958227412575</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>7.876958227412576</v>
+        <v>7.876958227412575</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>26.37882596914197</v>
+        <v>26.37882596914196</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>26.37654001504041</v>
+        <v>26.3765400150404</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70063,7 +70063,7 @@
         <v>8715</v>
       </c>
       <c r="B8715">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8716" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70079,7 +70079,7 @@
         <v>8717</v>
       </c>
       <c r="B8717">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8718" spans="1:2">
@@ -70087,7 +70087,7 @@
         <v>8718</v>
       </c>
       <c r="B8718">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8719" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>0.8700605074466421</v>
+        <v>0.870060507446642</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>7.876958227412576</v>
+        <v>7.876958227412575</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
